--- a/vendas.xlsx
+++ b/vendas.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du_vn\Downloads\exerc_arqs_02_power_bi-main\exerc_arqs_02_power_bi-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\du_vn\OneDrive\Área de Trabalho\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B88C620-962F-460F-AA81-FA1FF93DDB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2082047-004D-4B76-A552-A32C26647353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="minhas_vendas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -107,16 +107,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,10 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,7 +161,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57C181F0-76C9-4054-9C3C-A12F885165F9}" name="Tabela2" displayName="Tabela2" ref="A1:F88" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57C181F0-76C9-4054-9C3C-A12F885165F9}" name="vendas" displayName="vendas" ref="A1:F88" totalsRowShown="0">
   <autoFilter ref="A1:F88" xr:uid="{57C181F0-76C9-4054-9C3C-A12F885165F9}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{AEC349DD-2944-487C-8C65-781A99A7DFFB}" name="id_venda" dataDxfId="0"/>
@@ -506,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B6" sqref="A2:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2122,7 +2113,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2142,7 +2133,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2162,7 +2153,7 @@
         <v>45285</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2201,9 +2192,8 @@
       <c r="F84" s="1">
         <v>45119</v>
       </c>
-      <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2223,7 +2213,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2243,7 +2233,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2263,7 +2253,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
